--- a/SDLT Running Code/Excel Comparision/comparison/Final.xlsx
+++ b/SDLT Running Code/Excel Comparision/comparison/Final.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Taylors\Excel Comparision\comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5169DA24-A88C-4890-B47A-1C42591970E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB20154D-5D82-4B04-8C6F-DBE00B9C1DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="162">
   <si>
     <t>Insight Ref</t>
   </si>
@@ -268,91 +269,175 @@
     <t>Primary Purchaser NIN</t>
   </si>
   <si>
-    <t>MRT1723</t>
-  </si>
-  <si>
-    <t>Purchase TL</t>
-  </si>
-  <si>
-    <t>Freehold</t>
-  </si>
-  <si>
-    <t>Katarzyna Maria Szczerba</t>
+    <t>NNT1028</t>
+  </si>
+  <si>
+    <t>New Build Purchase</t>
+  </si>
+  <si>
+    <t>Leasehold</t>
+  </si>
+  <si>
+    <t>Beenish Ali</t>
+  </si>
+  <si>
+    <t>39 Parkes Avenue, Birmingham</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>£187,000.00</t>
+  </si>
+  <si>
+    <t>16/09/2022</t>
+  </si>
+  <si>
+    <t>19/07/2023</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>GALLIARD WAVENSMERE (MIDDLEWAY) LIMITED</t>
+  </si>
+  <si>
+    <t>3rd Floor Sterling House Langston Road Loughton Essex IG10 3TS</t>
+  </si>
+  <si>
+    <t>Howard Kennedy</t>
+  </si>
+  <si>
+    <t>1 London Bridge, SE1 9BG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plot 7.08 Belgrave Village Birmingham   </t>
+  </si>
+  <si>
+    <t>Individuals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beenish </t>
+  </si>
+  <si>
+    <t>Ali</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>£700,000.00</t>
-  </si>
-  <si>
-    <t>Lewisham</t>
-  </si>
-  <si>
-    <t>Michael Brian Wood</t>
-  </si>
-  <si>
-    <t>17b Church Rise, Forest Hill, London, SE23 2UD</t>
-  </si>
-  <si>
-    <t>Emin Read</t>
-  </si>
-  <si>
-    <t>25 Balham Hill, London, SW12 9DX</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 17B Church Rise </t>
-  </si>
-  <si>
-    <t>Individuals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katarzyna Maria </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pierre Mathieu </t>
-  </si>
-  <si>
-    <t>Szczerba</t>
-  </si>
-  <si>
-    <t>Blacque- Florentin</t>
-  </si>
-  <si>
-    <t>SGL507353</t>
-  </si>
-  <si>
-    <t>Michael Brian Wood and Claire Jessica Harding</t>
-  </si>
-  <si>
-    <t>17B Church Rise, London</t>
-  </si>
-  <si>
-    <t>SE23 2UD</t>
-  </si>
-  <si>
-    <t>Claire Jessica Harding</t>
-  </si>
-  <si>
-    <t>17B Church Rise, Forest Hill, London, SE23 2UD</t>
-  </si>
-  <si>
-    <t>Pierre Mathieu Blacque- Florentin</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>SN352872A</t>
-  </si>
-  <si>
-    <t>SN382090C</t>
-  </si>
-  <si>
-    <t>SN352872A,SN382090C,NULL,NULL</t>
-  </si>
-  <si>
-    <t>06/07/2023</t>
+    <t>B12 9AW</t>
+  </si>
+  <si>
+    <t>SC809688A</t>
+  </si>
+  <si>
+    <t>NBT1872</t>
+  </si>
+  <si>
+    <t>Marius Catalin Voica</t>
+  </si>
+  <si>
+    <t>17 Elder Crescent, St Neots</t>
+  </si>
+  <si>
+    <t>£259,950.00</t>
+  </si>
+  <si>
+    <t>20/07/2023</t>
+  </si>
+  <si>
+    <t>Huntingdon</t>
+  </si>
+  <si>
+    <t>DURKAN (ST NEOTS) LIMITED</t>
+  </si>
+  <si>
+    <t>4 Elstree Gate, Elstree Way, Borehamwood, WD6 1JD</t>
+  </si>
+  <si>
+    <t>Birketts</t>
+  </si>
+  <si>
+    <t>Kingfisher House, 1 Gilders Way, Norwich, Norfolk, NR3 1UB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Plot 274 Wintringham Park, St. Neots </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marius Catalin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria-Magdalena </t>
+  </si>
+  <si>
+    <t>Voica</t>
+  </si>
+  <si>
+    <t>PE19 0BF</t>
+  </si>
+  <si>
+    <t>SS438175D</t>
+  </si>
+  <si>
+    <t>ST210146C</t>
+  </si>
+  <si>
+    <t>NNT1227</t>
+  </si>
+  <si>
+    <t>Silje Merete Saethren Gronning</t>
+  </si>
+  <si>
+    <t>37 Pembrey Court, Bollo Lane</t>
+  </si>
+  <si>
+    <t>£460,000.00</t>
+  </si>
+  <si>
+    <t>12/07/2023</t>
+  </si>
+  <si>
+    <t>Ealing</t>
+  </si>
+  <si>
+    <t>ACTON GARDENS LLP</t>
+  </si>
+  <si>
+    <t>Countryside House The Drive Brentwood Essex CM13 3AT</t>
+  </si>
+  <si>
+    <t>Countryside Properties (UK) Limited</t>
+  </si>
+  <si>
+    <t>DX 124280 , BRENTWOOD 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Plot 200 Acton Gardens  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silje Merete Saethren </t>
+  </si>
+  <si>
+    <t>Gronning</t>
+  </si>
+  <si>
+    <t>W3 8QR</t>
+  </si>
+  <si>
+    <t>SY217118C</t>
+  </si>
+  <si>
+    <t>Silje Merete Sathren Gronning</t>
+  </si>
+  <si>
+    <t>SC809688A,NULL,NULL,NULL</t>
+  </si>
+  <si>
+    <t>SS438175D,ST210146C,NULL,NULL</t>
+  </si>
+  <si>
+    <t>SY217118C,NULL,NULL,NULL</t>
   </si>
   <si>
     <t>Calculate SDLT Status</t>
@@ -370,22 +455,58 @@
     <t>BACS status</t>
   </si>
   <si>
+    <t>£0</t>
+  </si>
+  <si>
+    <t>£28</t>
+  </si>
+  <si>
     <t>Completed</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
+    <t>£497</t>
+  </si>
+  <si>
+    <t>£1,750</t>
+  </si>
+  <si>
+    <t>01/01/2022</t>
+  </si>
+  <si>
+    <t>31/12/3021</t>
+  </si>
+  <si>
+    <t>01/06/2022</t>
+  </si>
+  <si>
+    <t>29/01/2021</t>
+  </si>
+  <si>
+    <t>25/01/2271</t>
+  </si>
+  <si>
+    <t>30/05/3021</t>
+  </si>
+  <si>
     <t>SDLT Submitted</t>
   </si>
   <si>
     <t>UTRN NUMBER</t>
   </si>
   <si>
-    <t>519151082MR</t>
+    <t>519189749MC</t>
   </si>
   <si>
     <t>BACS SUBMITTED</t>
+  </si>
+  <si>
+    <t>519196338MW</t>
+  </si>
+  <si>
+    <t>519196253MY</t>
   </si>
 </sst>
 </file>
@@ -426,9 +547,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -731,16 +852,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CK99"/>
+  <dimension ref="A1:CK97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2"/>
+    <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
+      <selection activeCell="BR13" sqref="BR13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:89" x14ac:dyDescent="0.25">
@@ -991,27 +1111,27 @@
         <v>81</v>
       </c>
       <c r="CE1" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="CF1" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="CG1" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="CH1" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="CI1" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="CK1" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
         <v>83</v>
@@ -1020,617 +1140,873 @@
         <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="H2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="J2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="K2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N2" t="s">
+        <v>125</v>
+      </c>
+      <c r="O2" t="s">
+        <v>126</v>
+      </c>
+      <c r="P2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>128</v>
+      </c>
+      <c r="R2" t="s">
+        <v>129</v>
+      </c>
+      <c r="S2" t="s">
+        <v>130</v>
+      </c>
+      <c r="T2">
+        <v>1750</v>
+      </c>
+      <c r="U2" t="s">
+        <v>97</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>32902</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BQ2" t="s">
         <v>87</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="N2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O2" t="s">
-        <v>89</v>
-      </c>
-      <c r="P2" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>91</v>
-      </c>
-      <c r="R2" t="s">
-        <v>92</v>
-      </c>
-      <c r="S2" t="s">
-        <v>93</v>
-      </c>
-      <c r="T2">
-        <v>22500</v>
-      </c>
-      <c r="U2" t="s">
-        <v>94</v>
-      </c>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="AB2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>33837</v>
-      </c>
-      <c r="AL2" s="1">
-        <v>32560</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>104</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>105</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>106</v>
-      </c>
       <c r="BY2" t="s">
-        <v>107</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="CC2" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="CD2" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="CE2" t="s">
-        <v>116</v>
-      </c>
-      <c r="CF2" s="4">
-        <v>45115</v>
+        <v>146</v>
+      </c>
+      <c r="CF2" s="3">
+        <v>45128</v>
       </c>
       <c r="CG2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="CH2" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="CI2" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="CK2" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="M3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
+      <c r="M3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="M4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
+      <c r="M4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="M5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
+      <c r="M5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="M6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
+      <c r="M6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="M7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
+      <c r="M7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="M8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
+      <c r="M8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="M9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
+      <c r="M9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="M10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
+      <c r="M10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="M11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
+      <c r="M11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="M12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
+      <c r="M12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="M13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
+      <c r="M13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="M14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
+      <c r="M14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="M15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
+      <c r="M15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
     </row>
     <row r="16" spans="1:89" x14ac:dyDescent="0.25">
-      <c r="M16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
+      <c r="M16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
     </row>
     <row r="17" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
+      <c r="M17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
     </row>
     <row r="18" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
+      <c r="M18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
     </row>
     <row r="19" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
+      <c r="M19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
     </row>
     <row r="20" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
+      <c r="M20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
     </row>
     <row r="21" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
+      <c r="M21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
     </row>
     <row r="22" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
+      <c r="M22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
     </row>
     <row r="23" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
+      <c r="M23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
     </row>
     <row r="24" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
+      <c r="M24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
     </row>
     <row r="25" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
+      <c r="M25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
     </row>
     <row r="26" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
+      <c r="M26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
     </row>
     <row r="27" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
+      <c r="M27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
     </row>
     <row r="28" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
+      <c r="M28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
     </row>
     <row r="29" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
+      <c r="M29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
     </row>
     <row r="30" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
+      <c r="M30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
     </row>
     <row r="31" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
+      <c r="M31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
     </row>
     <row r="32" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
+      <c r="M32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
     </row>
     <row r="33" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
+      <c r="M33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
     </row>
     <row r="34" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
+      <c r="M34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
     </row>
     <row r="35" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
+      <c r="M35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
     </row>
     <row r="36" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
+      <c r="M36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
     </row>
     <row r="37" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
+      <c r="M37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
     </row>
     <row r="38" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
+      <c r="M38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
     </row>
     <row r="39" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
+      <c r="M39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
     </row>
     <row r="40" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
+      <c r="M40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
     </row>
     <row r="41" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
+      <c r="M41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
     </row>
     <row r="42" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M42" s="3"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="3"/>
+      <c r="M42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
     </row>
     <row r="43" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
+      <c r="M43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
     </row>
     <row r="44" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="W44" s="3"/>
+      <c r="M44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
     </row>
     <row r="45" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M45" s="3"/>
-      <c r="V45" s="3"/>
-      <c r="W45" s="3"/>
+      <c r="M45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
     </row>
     <row r="46" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M46" s="3"/>
-      <c r="V46" s="3"/>
-      <c r="W46" s="3"/>
+      <c r="M46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
     </row>
     <row r="47" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M47" s="3"/>
-      <c r="V47" s="3"/>
-      <c r="W47" s="3"/>
+      <c r="M47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
     </row>
     <row r="48" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M48" s="3"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
+      <c r="M48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
     </row>
     <row r="49" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M49" s="3"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
+      <c r="M49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
     </row>
     <row r="50" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M50" s="3"/>
-      <c r="V50" s="3"/>
-      <c r="W50" s="3"/>
+      <c r="M50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
     </row>
     <row r="51" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M51" s="3"/>
-      <c r="V51" s="3"/>
-      <c r="W51" s="3"/>
+      <c r="M51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
     </row>
     <row r="52" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M52" s="3"/>
-      <c r="V52" s="3"/>
-      <c r="W52" s="3"/>
+      <c r="M52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
     </row>
     <row r="53" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M53" s="3"/>
-      <c r="V53" s="3"/>
-      <c r="W53" s="3"/>
+      <c r="M53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
     </row>
     <row r="54" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M54" s="3"/>
-      <c r="V54" s="3"/>
-      <c r="W54" s="3"/>
+      <c r="M54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
     </row>
     <row r="55" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M55" s="3"/>
-      <c r="V55" s="3"/>
-      <c r="W55" s="3"/>
+      <c r="M55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
     </row>
     <row r="56" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
+      <c r="M56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
     </row>
     <row r="57" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M57" s="3"/>
-      <c r="V57" s="3"/>
-      <c r="W57" s="3"/>
+      <c r="M57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
     </row>
     <row r="58" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M58" s="3"/>
-      <c r="V58" s="3"/>
-      <c r="W58" s="3"/>
+      <c r="M58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
     </row>
     <row r="59" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M59" s="3"/>
-      <c r="V59" s="3"/>
-      <c r="W59" s="3"/>
+      <c r="M59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
     </row>
     <row r="60" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M60" s="3"/>
-      <c r="V60" s="3"/>
-      <c r="W60" s="3"/>
+      <c r="M60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
     </row>
     <row r="61" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M61" s="3"/>
-      <c r="V61" s="3"/>
-      <c r="W61" s="3"/>
+      <c r="M61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
     </row>
     <row r="62" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M62" s="3"/>
-      <c r="V62" s="3"/>
-      <c r="W62" s="3"/>
+      <c r="M62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
     </row>
     <row r="63" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M63" s="3"/>
-      <c r="V63" s="3"/>
-      <c r="W63" s="3"/>
+      <c r="M63" s="2"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="2"/>
     </row>
     <row r="64" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M64" s="3"/>
-      <c r="V64" s="3"/>
-      <c r="W64" s="3"/>
+      <c r="M64" s="2"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="2"/>
     </row>
     <row r="65" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M65" s="3"/>
-      <c r="V65" s="3"/>
-      <c r="W65" s="3"/>
+      <c r="M65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="2"/>
     </row>
     <row r="66" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M66" s="3"/>
-      <c r="V66" s="3"/>
-      <c r="W66" s="3"/>
+      <c r="M66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
     </row>
     <row r="67" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M67" s="3"/>
-      <c r="V67" s="3"/>
-      <c r="W67" s="3"/>
+      <c r="M67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
     </row>
     <row r="68" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M68" s="3"/>
-      <c r="V68" s="3"/>
-      <c r="W68" s="3"/>
+      <c r="M68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
     </row>
     <row r="69" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M69" s="3"/>
-      <c r="V69" s="3"/>
-      <c r="W69" s="3"/>
+      <c r="M69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
     </row>
     <row r="70" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M70" s="3"/>
-      <c r="V70" s="3"/>
-      <c r="W70" s="3"/>
+      <c r="M70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
     </row>
     <row r="71" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M71" s="3"/>
-      <c r="V71" s="3"/>
-      <c r="W71" s="3"/>
+      <c r="M71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
     </row>
     <row r="72" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M72" s="3"/>
-      <c r="V72" s="3"/>
-      <c r="W72" s="3"/>
+      <c r="M72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="2"/>
     </row>
     <row r="73" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M73" s="3"/>
-      <c r="V73" s="3"/>
-      <c r="W73" s="3"/>
+      <c r="M73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
     </row>
     <row r="74" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M74" s="3"/>
-      <c r="V74" s="3"/>
-      <c r="W74" s="3"/>
+      <c r="M74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
     </row>
     <row r="75" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M75" s="3"/>
-      <c r="V75" s="3"/>
-      <c r="W75" s="3"/>
+      <c r="M75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
     </row>
     <row r="76" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M76" s="3"/>
-      <c r="V76" s="3"/>
-      <c r="W76" s="3"/>
+      <c r="M76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
     </row>
     <row r="77" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M77" s="3"/>
-      <c r="V77" s="3"/>
-      <c r="W77" s="3"/>
+      <c r="M77" s="2"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="2"/>
     </row>
     <row r="78" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M78" s="3"/>
-      <c r="V78" s="3"/>
-      <c r="W78" s="3"/>
+      <c r="M78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
     </row>
     <row r="79" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M79" s="3"/>
-      <c r="V79" s="3"/>
-      <c r="W79" s="3"/>
+      <c r="M79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
     </row>
     <row r="80" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M80" s="3"/>
-      <c r="V80" s="3"/>
-      <c r="W80" s="3"/>
+      <c r="M80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="2"/>
     </row>
     <row r="81" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M81" s="3"/>
-      <c r="V81" s="3"/>
-      <c r="W81" s="3"/>
+      <c r="M81" s="2"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="2"/>
     </row>
     <row r="82" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M82" s="3"/>
-      <c r="V82" s="3"/>
-      <c r="W82" s="3"/>
+      <c r="M82" s="2"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="2"/>
     </row>
     <row r="83" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M83" s="3"/>
-      <c r="V83" s="3"/>
-      <c r="W83" s="3"/>
+      <c r="M83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
     </row>
     <row r="84" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M84" s="3"/>
-      <c r="V84" s="3"/>
-      <c r="W84" s="3"/>
+      <c r="M84" s="2"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="2"/>
     </row>
     <row r="85" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M85" s="3"/>
-      <c r="V85" s="3"/>
-      <c r="W85" s="3"/>
+      <c r="M85" s="2"/>
+      <c r="V85" s="2"/>
+      <c r="W85" s="2"/>
     </row>
     <row r="86" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M86" s="3"/>
-      <c r="V86" s="3"/>
-      <c r="W86" s="3"/>
+      <c r="M86" s="2"/>
+      <c r="V86" s="2"/>
+      <c r="W86" s="2"/>
     </row>
     <row r="87" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M87" s="3"/>
-      <c r="V87" s="3"/>
-      <c r="W87" s="3"/>
+      <c r="M87" s="2"/>
+      <c r="V87" s="2"/>
+      <c r="W87" s="2"/>
     </row>
     <row r="88" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M88" s="3"/>
-      <c r="V88" s="3"/>
-      <c r="W88" s="3"/>
+      <c r="M88" s="2"/>
+      <c r="V88" s="2"/>
+      <c r="W88" s="2"/>
     </row>
     <row r="89" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M89" s="3"/>
-      <c r="V89" s="3"/>
-      <c r="W89" s="3"/>
+      <c r="M89" s="2"/>
+      <c r="V89" s="2"/>
+      <c r="W89" s="2"/>
     </row>
     <row r="90" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M90" s="3"/>
-      <c r="V90" s="3"/>
-      <c r="W90" s="3"/>
+      <c r="M90" s="2"/>
+      <c r="V90" s="2"/>
+      <c r="W90" s="2"/>
     </row>
     <row r="91" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M91" s="3"/>
-      <c r="V91" s="3"/>
-      <c r="W91" s="3"/>
+      <c r="M91" s="2"/>
+      <c r="V91" s="2"/>
+      <c r="W91" s="2"/>
     </row>
     <row r="92" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M92" s="3"/>
-      <c r="V92" s="3"/>
-      <c r="W92" s="3"/>
+      <c r="M92" s="2"/>
+      <c r="V92" s="2"/>
+      <c r="W92" s="2"/>
     </row>
     <row r="93" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M93" s="3"/>
-      <c r="V93" s="3"/>
-      <c r="W93" s="3"/>
+      <c r="M93" s="2"/>
+      <c r="V93" s="2"/>
+      <c r="W93" s="2"/>
     </row>
     <row r="94" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M94" s="3"/>
-      <c r="V94" s="3"/>
-      <c r="W94" s="3"/>
+      <c r="M94" s="2"/>
+      <c r="V94" s="2"/>
+      <c r="W94" s="2"/>
     </row>
     <row r="95" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M95" s="3"/>
-      <c r="V95" s="3"/>
-      <c r="W95" s="3"/>
+      <c r="M95" s="2"/>
+      <c r="V95" s="2"/>
+      <c r="W95" s="2"/>
     </row>
     <row r="96" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M96" s="3"/>
-      <c r="V96" s="3"/>
-      <c r="W96" s="3"/>
+      <c r="M96" s="2"/>
+      <c r="V96" s="2"/>
+      <c r="W96" s="2"/>
     </row>
     <row r="97" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M97" s="3"/>
-      <c r="V97" s="3"/>
-      <c r="W97" s="3"/>
-    </row>
-    <row r="98" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M98" s="3"/>
-      <c r="V98" s="3"/>
-      <c r="W98" s="3"/>
-    </row>
-    <row r="99" spans="13:23" x14ac:dyDescent="0.25">
-      <c r="M99" s="3"/>
-      <c r="V99" s="3"/>
-      <c r="W99" s="3"/>
+      <c r="M97" s="2"/>
+      <c r="V97" s="2"/>
+      <c r="W97" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E81F5D8-FDA1-468C-B7AA-074704E948B4}">
+  <dimension ref="A1:CK2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R1" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T1">
+        <v>5610</v>
+      </c>
+      <c r="U1" t="s">
+        <v>97</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="X1">
+        <v>1</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>33136</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>92</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>100</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>146</v>
+      </c>
+      <c r="CF1" s="3">
+        <v>45128</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>147</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>159</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" t="s">
+        <v>106</v>
+      </c>
+      <c r="L2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O2" t="s">
+        <v>109</v>
+      </c>
+      <c r="P2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>111</v>
+      </c>
+      <c r="R2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S2" t="s">
+        <v>113</v>
+      </c>
+      <c r="T2">
+        <v>497</v>
+      </c>
+      <c r="U2" t="s">
+        <v>97</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>28183</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>29090</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>105</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>117</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>118</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>119</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>104</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>118</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>146</v>
+      </c>
+      <c r="CF2" s="3">
+        <v>45128</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>147</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>156</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>159</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>